--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H2">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I2">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J2">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.821352666666667</v>
+        <v>3.443466666666667</v>
       </c>
       <c r="N2">
-        <v>8.464058000000001</v>
+        <v>10.3304</v>
       </c>
       <c r="O2">
-        <v>0.06564465474960136</v>
+        <v>0.07502986933839939</v>
       </c>
       <c r="P2">
-        <v>0.06564465474960136</v>
+        <v>0.07502986933839939</v>
       </c>
       <c r="Q2">
-        <v>2.463175362477112</v>
+        <v>3.123740786666667</v>
       </c>
       <c r="R2">
-        <v>22.16857826229401</v>
+        <v>28.11366708</v>
       </c>
       <c r="S2">
-        <v>0.001142826731986122</v>
+        <v>0.001288870553462822</v>
       </c>
       <c r="T2">
-        <v>0.001142826731986122</v>
+        <v>0.001288870553462822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H3">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I3">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J3">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.13439</v>
       </c>
       <c r="O3">
-        <v>0.09411063134810929</v>
+        <v>0.08813227911805739</v>
       </c>
       <c r="P3">
-        <v>0.09411063134810929</v>
+        <v>0.08813227911805739</v>
       </c>
       <c r="Q3">
-        <v>3.531300291974445</v>
+        <v>3.669237296166667</v>
       </c>
       <c r="R3">
-        <v>31.78170262777</v>
+        <v>33.0231356655</v>
       </c>
       <c r="S3">
-        <v>0.001638399130576028</v>
+        <v>0.001513945051037108</v>
       </c>
       <c r="T3">
-        <v>0.001638399130576028</v>
+        <v>0.001513945051037107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H4">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I4">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J4">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.937633333333334</v>
+        <v>2.521553333333333</v>
       </c>
       <c r="N4">
-        <v>5.812900000000001</v>
+        <v>7.56466</v>
       </c>
       <c r="O4">
-        <v>0.04508308114074334</v>
+        <v>0.054942253096629</v>
       </c>
       <c r="P4">
-        <v>0.04508308114074334</v>
+        <v>0.054942253096629</v>
       </c>
       <c r="Q4">
-        <v>1.691646260522223</v>
+        <v>2.287427106333333</v>
       </c>
       <c r="R4">
-        <v>15.2248163447</v>
+        <v>20.586843957</v>
       </c>
       <c r="S4">
-        <v>0.0007848643653389578</v>
+        <v>0.0009438034849529614</v>
       </c>
       <c r="T4">
-        <v>0.0007848643653389578</v>
+        <v>0.0009438034849529611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H5">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I5">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J5">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.17538566666667</v>
+        <v>35.88479433333333</v>
       </c>
       <c r="N5">
-        <v>102.526157</v>
+        <v>107.654383</v>
       </c>
       <c r="O5">
-        <v>0.7951616327615459</v>
+        <v>0.7818955984469143</v>
       </c>
       <c r="P5">
-        <v>0.7951616327615459</v>
+        <v>0.7818955984469143</v>
       </c>
       <c r="Q5">
-        <v>29.83674071371679</v>
+        <v>32.55289117948333</v>
       </c>
       <c r="R5">
-        <v>268.5306664234511</v>
+        <v>292.97602061535</v>
       </c>
       <c r="S5">
-        <v>0.013843198256369</v>
+        <v>0.01343148031053092</v>
       </c>
       <c r="T5">
-        <v>0.013843198256369</v>
+        <v>0.01343148031053092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.757538</v>
       </c>
       <c r="I6">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J6">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.821352666666667</v>
+        <v>3.443466666666667</v>
       </c>
       <c r="N6">
-        <v>8.464058000000001</v>
+        <v>10.3304</v>
       </c>
       <c r="O6">
-        <v>0.06564465474960136</v>
+        <v>0.07502986933839939</v>
       </c>
       <c r="P6">
-        <v>0.06564465474960136</v>
+        <v>0.07502986933839939</v>
       </c>
       <c r="Q6">
-        <v>3.533779952133779</v>
+        <v>4.312985617244445</v>
       </c>
       <c r="R6">
-        <v>31.80401956920401</v>
+        <v>38.8168705552</v>
       </c>
       <c r="S6">
-        <v>0.001639549605673943</v>
+        <v>0.001779558721166138</v>
       </c>
       <c r="T6">
-        <v>0.001639549605673943</v>
+        <v>0.001779558721166138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.757538</v>
       </c>
       <c r="I7">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J7">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>12.13439</v>
       </c>
       <c r="O7">
-        <v>0.09411063134810929</v>
+        <v>0.08813227911805739</v>
       </c>
       <c r="P7">
-        <v>0.09411063134810929</v>
+        <v>0.08813227911805739</v>
       </c>
       <c r="Q7">
         <v>5.066159059091111</v>
@@ -883,10 +883,10 @@
         <v>45.59543153182</v>
       </c>
       <c r="S7">
-        <v>0.002350519613593602</v>
+        <v>0.00209032172525083</v>
       </c>
       <c r="T7">
-        <v>0.002350519613593602</v>
+        <v>0.00209032172525083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.757538</v>
       </c>
       <c r="I8">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J8">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.937633333333334</v>
+        <v>2.521553333333333</v>
       </c>
       <c r="N8">
-        <v>5.812900000000001</v>
+        <v>7.56466</v>
       </c>
       <c r="O8">
-        <v>0.04508308114074334</v>
+        <v>0.054942253096629</v>
       </c>
       <c r="P8">
-        <v>0.04508308114074334</v>
+        <v>0.054942253096629</v>
       </c>
       <c r="Q8">
-        <v>2.426910293355556</v>
+        <v>3.158277489675556</v>
       </c>
       <c r="R8">
-        <v>21.8421926402</v>
+        <v>28.42449740708</v>
       </c>
       <c r="S8">
-        <v>0.001126001015449335</v>
+        <v>0.001303120564126911</v>
       </c>
       <c r="T8">
-        <v>0.001126001015449334</v>
+        <v>0.00130312056412691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.757538</v>
       </c>
       <c r="I9">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J9">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.17538566666667</v>
+        <v>35.88479433333333</v>
       </c>
       <c r="N9">
-        <v>102.526157</v>
+        <v>107.654383</v>
       </c>
       <c r="O9">
-        <v>0.7951616327615459</v>
+        <v>0.7818955984469143</v>
       </c>
       <c r="P9">
-        <v>0.7951616327615459</v>
+        <v>0.7818955984469143</v>
       </c>
       <c r="Q9">
-        <v>42.80510343571846</v>
+        <v>44.94615944322823</v>
       </c>
       <c r="R9">
-        <v>385.2459309214661</v>
+        <v>404.515434989054</v>
       </c>
       <c r="S9">
-        <v>0.01986006242875637</v>
+        <v>0.01854500272394192</v>
       </c>
       <c r="T9">
-        <v>0.01986006242875637</v>
+        <v>0.01854500272394192</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H10">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I10">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J10">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.821352666666667</v>
+        <v>3.443466666666667</v>
       </c>
       <c r="N10">
-        <v>8.464058000000001</v>
+        <v>10.3304</v>
       </c>
       <c r="O10">
-        <v>0.06564465474960136</v>
+        <v>0.07502986933839939</v>
       </c>
       <c r="P10">
-        <v>0.06564465474960136</v>
+        <v>0.07502986933839939</v>
       </c>
       <c r="Q10">
-        <v>6.741198053649113</v>
+        <v>7.740335712088889</v>
       </c>
       <c r="R10">
-        <v>60.67078248284201</v>
+        <v>69.66302140880001</v>
       </c>
       <c r="S10">
-        <v>0.003127678791645354</v>
+        <v>0.003193699943289379</v>
       </c>
       <c r="T10">
-        <v>0.003127678791645354</v>
+        <v>0.003193699943289379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H11">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I11">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J11">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>12.13439</v>
       </c>
       <c r="O11">
-        <v>0.09411063134810929</v>
+        <v>0.08813227911805739</v>
       </c>
       <c r="P11">
-        <v>0.09411063134810929</v>
+        <v>0.08813227911805739</v>
       </c>
       <c r="Q11">
-        <v>9.664433567234443</v>
+        <v>9.092024729092222</v>
       </c>
       <c r="R11">
-        <v>86.97990210511</v>
+        <v>81.82822256182999</v>
       </c>
       <c r="S11">
-        <v>0.00448395725224868</v>
+        <v>0.003751413367812593</v>
       </c>
       <c r="T11">
-        <v>0.00448395725224868</v>
+        <v>0.003751413367812592</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H12">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I12">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J12">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.937633333333334</v>
+        <v>2.521553333333333</v>
       </c>
       <c r="N12">
-        <v>5.812900000000001</v>
+        <v>7.56466</v>
       </c>
       <c r="O12">
-        <v>0.04508308114074334</v>
+        <v>0.054942253096629</v>
       </c>
       <c r="P12">
-        <v>0.04508308114074334</v>
+        <v>0.054942253096629</v>
       </c>
       <c r="Q12">
-        <v>4.629683559122222</v>
+        <v>5.66802911289111</v>
       </c>
       <c r="R12">
-        <v>41.66715203210001</v>
+        <v>51.01226201602</v>
       </c>
       <c r="S12">
-        <v>0.002148010333572298</v>
+        <v>0.00233865621979821</v>
       </c>
       <c r="T12">
-        <v>0.002148010333572298</v>
+        <v>0.00233865621979821</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H13">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I13">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J13">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>34.17538566666667</v>
+        <v>35.88479433333333</v>
       </c>
       <c r="N13">
-        <v>102.526157</v>
+        <v>107.654383</v>
       </c>
       <c r="O13">
-        <v>0.7951616327615459</v>
+        <v>0.7818955984469143</v>
       </c>
       <c r="P13">
-        <v>0.7951616327615459</v>
+        <v>0.7818955984469143</v>
       </c>
       <c r="Q13">
-        <v>81.65694635085478</v>
+        <v>80.66300097748343</v>
       </c>
       <c r="R13">
-        <v>734.9125171576931</v>
+        <v>725.9670087973509</v>
       </c>
       <c r="S13">
-        <v>0.03788595102228764</v>
+        <v>0.0332819442501697</v>
       </c>
       <c r="T13">
-        <v>0.03788595102228764</v>
+        <v>0.03328194425016969</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H14">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I14">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J14">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.821352666666667</v>
+        <v>3.443466666666667</v>
       </c>
       <c r="N14">
-        <v>8.464058000000001</v>
+        <v>10.3304</v>
       </c>
       <c r="O14">
-        <v>0.06564465474960136</v>
+        <v>0.07502986933839939</v>
       </c>
       <c r="P14">
-        <v>0.06564465474960136</v>
+        <v>0.07502986933839939</v>
       </c>
       <c r="Q14">
-        <v>128.7481207378114</v>
+        <v>166.6673150721778</v>
       </c>
       <c r="R14">
-        <v>1158.733086640302</v>
+        <v>1500.0058356496</v>
       </c>
       <c r="S14">
-        <v>0.05973459962029595</v>
+        <v>0.06876774012048105</v>
       </c>
       <c r="T14">
-        <v>0.05973459962029594</v>
+        <v>0.06876774012048105</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H15">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I15">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J15">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>12.13439</v>
       </c>
       <c r="O15">
-        <v>0.09411063134810929</v>
+        <v>0.08813227911805739</v>
       </c>
       <c r="P15">
-        <v>0.09411063134810929</v>
+        <v>0.08813227911805739</v>
       </c>
       <c r="Q15">
-        <v>184.5781194788233</v>
+        <v>195.7723032349845</v>
       </c>
       <c r="R15">
-        <v>1661.20307530941</v>
+        <v>1761.95072911486</v>
       </c>
       <c r="S15">
-        <v>0.08563775535169098</v>
+        <v>0.08077659897395686</v>
       </c>
       <c r="T15">
-        <v>0.08563775535169098</v>
+        <v>0.08077659897395685</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H16">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I16">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J16">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.937633333333334</v>
+        <v>2.521553333333333</v>
       </c>
       <c r="N16">
-        <v>5.812900000000001</v>
+        <v>7.56466</v>
       </c>
       <c r="O16">
-        <v>0.04508308114074334</v>
+        <v>0.054942253096629</v>
       </c>
       <c r="P16">
-        <v>0.04508308114074334</v>
+        <v>0.054942253096629</v>
       </c>
       <c r="Q16">
-        <v>88.42093840056668</v>
+        <v>122.0457650849822</v>
       </c>
       <c r="R16">
-        <v>795.7884456051002</v>
+        <v>1098.41188576484</v>
       </c>
       <c r="S16">
-        <v>0.04102420542638275</v>
+        <v>0.05035667282775092</v>
       </c>
       <c r="T16">
-        <v>0.04102420542638274</v>
+        <v>0.05035667282775091</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.633473</v>
+        <v>48.40102466666667</v>
       </c>
       <c r="H17">
-        <v>136.900419</v>
+        <v>145.203074</v>
       </c>
       <c r="I17">
-        <v>0.9099689814525027</v>
+        <v>0.9165381830844606</v>
       </c>
       <c r="J17">
-        <v>0.9099689814525026</v>
+        <v>0.9165381830844604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.17538566666667</v>
+        <v>35.88479433333333</v>
       </c>
       <c r="N17">
-        <v>102.526157</v>
+        <v>107.654383</v>
       </c>
       <c r="O17">
-        <v>0.7951616327615459</v>
+        <v>0.7818955984469143</v>
       </c>
       <c r="P17">
-        <v>0.7951616327615459</v>
+        <v>0.7818955984469143</v>
       </c>
       <c r="Q17">
-        <v>1559.54153908442</v>
+        <v>1736.860815685927</v>
       </c>
       <c r="R17">
-        <v>14035.87385175978</v>
+        <v>15631.74734117334</v>
       </c>
       <c r="S17">
-        <v>0.723572421054133</v>
+        <v>0.7166371711622718</v>
       </c>
       <c r="T17">
-        <v>0.7235724210541329</v>
+        <v>0.7166371711622717</v>
       </c>
     </row>
   </sheetData>
